--- a/Code/Results/Cases/Case_0_65/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_65/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.342116774811752</v>
+        <v>4.917212931948922</v>
       </c>
       <c r="D2">
-        <v>4.840264133561579</v>
+        <v>8.167369351208349</v>
       </c>
       <c r="E2">
-        <v>6.417627998789499</v>
+        <v>11.99738351296328</v>
       </c>
       <c r="F2">
-        <v>32.36023802799521</v>
+        <v>35.16875242850849</v>
       </c>
       <c r="G2">
-        <v>2.026353938893333</v>
+        <v>3.64068724090915</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4.813756656851013</v>
+        <v>9.278083156453967</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>31.10865178199626</v>
+        <v>24.88075059864842</v>
       </c>
       <c r="N2">
-        <v>19.12614529196037</v>
+        <v>17.35447637075239</v>
       </c>
       <c r="O2">
-        <v>25.44356012748439</v>
+        <v>27.26808620940093</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.817404773316114</v>
+        <v>4.750119464859718</v>
       </c>
       <c r="D3">
-        <v>4.854224658101307</v>
+        <v>8.179503095209968</v>
       </c>
       <c r="E3">
-        <v>6.575154453410183</v>
+        <v>12.05463908399377</v>
       </c>
       <c r="F3">
-        <v>30.63985154961584</v>
+        <v>34.9631354881279</v>
       </c>
       <c r="G3">
-        <v>2.03659281269575</v>
+        <v>3.64444024518847</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>4.941669121321271</v>
+        <v>9.321114434380858</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>29.02117698900819</v>
+        <v>24.17427427824269</v>
       </c>
       <c r="N3">
-        <v>18.33544392621036</v>
+        <v>17.09569665456516</v>
       </c>
       <c r="O3">
-        <v>24.07199061713236</v>
+        <v>27.08644799104477</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.479040995031461</v>
+        <v>4.646162616357148</v>
       </c>
       <c r="D4">
-        <v>4.863811341201012</v>
+        <v>8.187451942888639</v>
       </c>
       <c r="E4">
-        <v>6.674299157589051</v>
+        <v>12.09152148324506</v>
       </c>
       <c r="F4">
-        <v>29.57583726252332</v>
+        <v>34.84836795875881</v>
       </c>
       <c r="G4">
-        <v>2.043029325567225</v>
+        <v>3.646864997017706</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.021773159744091</v>
+        <v>9.34877062059031</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>27.67134306064409</v>
+        <v>23.73097930278247</v>
       </c>
       <c r="N4">
-        <v>17.83563488866762</v>
+        <v>16.93687677234264</v>
       </c>
       <c r="O4">
-        <v>23.22084076481111</v>
+        <v>26.98332921512337</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.3370181488383</v>
+        <v>4.603532865019321</v>
       </c>
       <c r="D5">
-        <v>4.867966533555988</v>
+        <v>8.190816853145179</v>
       </c>
       <c r="E5">
-        <v>6.715332650375283</v>
+        <v>12.10698707767452</v>
       </c>
       <c r="F5">
-        <v>29.14074053152373</v>
+        <v>34.80452020706537</v>
       </c>
       <c r="G5">
-        <v>2.04569232569767</v>
+        <v>3.647883491431646</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.054832462358058</v>
+        <v>9.360352286857824</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>27.14123198339242</v>
+        <v>23.54818489355255</v>
       </c>
       <c r="N5">
-        <v>17.62862294034552</v>
+        <v>16.87225031281281</v>
       </c>
       <c r="O5">
-        <v>22.87206042682281</v>
+        <v>26.94345513850023</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.313183642393485</v>
+        <v>4.596440452698929</v>
       </c>
       <c r="D6">
-        <v>4.86867133196395</v>
+        <v>8.19138319392686</v>
       </c>
       <c r="E6">
-        <v>6.722184970897032</v>
+        <v>12.10958148480595</v>
       </c>
       <c r="F6">
-        <v>29.06841693373042</v>
+        <v>34.79741661514781</v>
       </c>
       <c r="G6">
-        <v>2.046137001638316</v>
+        <v>3.64805445040567</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.06034770746909</v>
+        <v>9.362294260921404</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>27.05223023924579</v>
+        <v>23.51770976550928</v>
       </c>
       <c r="N6">
-        <v>17.59405571781105</v>
+        <v>16.86152704277186</v>
       </c>
       <c r="O6">
-        <v>22.81404055629132</v>
+        <v>26.93696468571127</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.477142460175714</v>
+        <v>4.64558867147369</v>
       </c>
       <c r="D7">
-        <v>4.863866381447539</v>
+        <v>8.187496813934739</v>
       </c>
       <c r="E7">
-        <v>6.674849965768193</v>
+        <v>12.09172829164696</v>
       </c>
       <c r="F7">
-        <v>29.56997483249733</v>
+        <v>34.84776474566191</v>
       </c>
       <c r="G7">
-        <v>2.043065074438343</v>
+        <v>3.646878609597311</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.022217294843915</v>
+        <v>9.348925552198029</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>27.66425939501603</v>
+        <v>23.72852243531446</v>
       </c>
       <c r="N7">
-        <v>17.83285618401638</v>
+        <v>16.93600471623157</v>
       </c>
       <c r="O7">
-        <v>23.2161443021818</v>
+        <v>26.9827827227267</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.164514966578836</v>
+        <v>4.859925192702277</v>
       </c>
       <c r="D8">
-        <v>4.844862815932046</v>
+        <v>8.1714497418567</v>
       </c>
       <c r="E8">
-        <v>6.471453968549912</v>
+        <v>12.01676758238604</v>
       </c>
       <c r="F8">
-        <v>31.76887092197749</v>
+        <v>35.09549446808343</v>
       </c>
       <c r="G8">
-        <v>2.029854715450848</v>
+        <v>3.641956358657358</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>4.857550174601526</v>
+        <v>9.292664688353154</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>30.40460662230474</v>
+        <v>24.63927400375151</v>
       </c>
       <c r="N8">
-        <v>18.85662991098991</v>
+        <v>17.26527943722603</v>
       </c>
       <c r="O8">
-        <v>24.97268430790486</v>
+        <v>27.20373365408723</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.38720368642581</v>
+        <v>5.266409101837487</v>
       </c>
       <c r="D9">
-        <v>4.815999803287756</v>
+        <v>8.143925056831105</v>
       </c>
       <c r="E9">
-        <v>6.09074069718779</v>
+        <v>11.8834107526297</v>
       </c>
       <c r="F9">
-        <v>36.00660729118918</v>
+        <v>35.67065886905645</v>
       </c>
       <c r="G9">
-        <v>2.005018676172933</v>
+        <v>3.633253863358509</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4.545938604261431</v>
+        <v>9.192086564531529</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>35.19798803226885</v>
+        <v>26.33988729653997</v>
       </c>
       <c r="N9">
-        <v>20.74085375466138</v>
+        <v>17.90827736312335</v>
       </c>
       <c r="O9">
-        <v>28.33578631951724</v>
+        <v>27.70206230748402</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.21399802866336</v>
+        <v>5.552983637587624</v>
       </c>
       <c r="D10">
-        <v>4.800500977831779</v>
+        <v>8.126088492097622</v>
       </c>
       <c r="E10">
-        <v>5.820448830682837</v>
+        <v>11.79365862909005</v>
       </c>
       <c r="F10">
-        <v>39.06535102869466</v>
+        <v>36.14503534893896</v>
       </c>
       <c r="G10">
-        <v>1.987238549793992</v>
+        <v>3.627431981747816</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.322164163552094</v>
+        <v>9.12406639034776</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>38.36591815365818</v>
+        <v>27.52532825249589</v>
       </c>
       <c r="N10">
-        <v>22.03916278093489</v>
+        <v>18.3747519733078</v>
       </c>
       <c r="O10">
-        <v>30.87577523911069</v>
+        <v>28.10534082559191</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.575795241004455</v>
+        <v>5.680083447584085</v>
       </c>
       <c r="D11">
-        <v>4.794854219269763</v>
+        <v>8.118488348619831</v>
       </c>
       <c r="E11">
-        <v>5.699124751540229</v>
+        <v>11.75459464164173</v>
       </c>
       <c r="F11">
-        <v>40.46558305296045</v>
+        <v>36.37142326415622</v>
       </c>
       <c r="G11">
-        <v>1.979203994886418</v>
+        <v>3.624906063932233</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.221053179829404</v>
+        <v>9.094383074525163</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>39.73277455633065</v>
+        <v>28.04854415224001</v>
       </c>
       <c r="N11">
-        <v>22.60943432165684</v>
+        <v>18.58480704459731</v>
       </c>
       <c r="O11">
-        <v>32.11284487242534</v>
+        <v>28.2962691859385</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.710851032003136</v>
+        <v>5.727697019072191</v>
       </c>
       <c r="D12">
-        <v>4.792934996722476</v>
+        <v>8.115683955580511</v>
       </c>
       <c r="E12">
-        <v>5.653379905180477</v>
+        <v>11.74005442393552</v>
       </c>
       <c r="F12">
-        <v>41.0297923463434</v>
+        <v>36.45861144743968</v>
       </c>
       <c r="G12">
-        <v>1.976164720827408</v>
+        <v>3.623967057605458</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.182823214153945</v>
+        <v>9.083322763094886</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>40.23991698851207</v>
+        <v>28.24420637808921</v>
       </c>
       <c r="N12">
-        <v>22.82235148549063</v>
+        <v>18.66397177131545</v>
       </c>
       <c r="O12">
-        <v>32.57697276112393</v>
+        <v>28.36958893509163</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.68184915335933</v>
+        <v>5.717466240855408</v>
       </c>
       <c r="D13">
-        <v>4.793338281165026</v>
+        <v>8.116284661937106</v>
       </c>
       <c r="E13">
-        <v>5.663223700825768</v>
+        <v>11.7431747120239</v>
       </c>
       <c r="F13">
-        <v>40.90843725154539</v>
+        <v>36.43977001875478</v>
       </c>
       <c r="G13">
-        <v>1.976819216633125</v>
+        <v>3.62416851266289</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.191054801435126</v>
+        <v>9.085696803982293</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>40.13115609183891</v>
+        <v>28.20217918147413</v>
       </c>
       <c r="N13">
-        <v>22.77663229638512</v>
+        <v>18.64694014921102</v>
       </c>
       <c r="O13">
-        <v>32.47720073926939</v>
+        <v>28.35375378897603</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.586944750509138</v>
+        <v>5.684011243420038</v>
       </c>
       <c r="D14">
-        <v>4.794691822226159</v>
+        <v>8.118256155661193</v>
       </c>
       <c r="E14">
-        <v>5.695357553170031</v>
+        <v>11.75339335677766</v>
       </c>
       <c r="F14">
-        <v>40.51207242970729</v>
+        <v>36.37856740138874</v>
       </c>
       <c r="G14">
-        <v>1.978953914882408</v>
+        <v>3.624828461136186</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.217907048766619</v>
+        <v>9.093469531882892</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>39.77470568891596</v>
+        <v>28.06469173235108</v>
       </c>
       <c r="N14">
-        <v>22.6270124513801</v>
+        <v>18.59132795120682</v>
       </c>
       <c r="O14">
-        <v>32.15111344377372</v>
+        <v>28.30228114332608</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.52856271340514</v>
+        <v>5.663450543437676</v>
       </c>
       <c r="D15">
-        <v>4.795550004646304</v>
+        <v>8.119473331603901</v>
       </c>
       <c r="E15">
-        <v>5.715065084941429</v>
+        <v>11.75968541198154</v>
       </c>
       <c r="F15">
-        <v>40.2688197122415</v>
+        <v>36.34126723495876</v>
       </c>
       <c r="G15">
-        <v>1.980261757727417</v>
+        <v>3.625234974923587</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.234361190178522</v>
+        <v>9.098253979413732</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>39.55501471444857</v>
+        <v>27.98015076400866</v>
       </c>
       <c r="N15">
-        <v>22.53496828027504</v>
+        <v>18.55721254933057</v>
       </c>
       <c r="O15">
-        <v>31.95082358403366</v>
+        <v>28.27088371984506</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.190074760089145</v>
+        <v>5.54460754083514</v>
       </c>
       <c r="D16">
-        <v>4.800899652109554</v>
+        <v>8.126595495419462</v>
       </c>
       <c r="E16">
-        <v>5.828407437873525</v>
+        <v>11.79624695199606</v>
       </c>
       <c r="F16">
-        <v>38.97494709058974</v>
+        <v>36.13044818536849</v>
       </c>
       <c r="G16">
-        <v>1.987764337136556</v>
+        <v>3.627599511780836</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.32878247639422</v>
+        <v>9.12603152301249</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>38.27511514229626</v>
+        <v>27.49079784168778</v>
       </c>
       <c r="N16">
-        <v>22.00147520544926</v>
+        <v>18.3609751440959</v>
       </c>
       <c r="O16">
-        <v>30.79430518492468</v>
+        <v>28.09300892633405</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.978831072357782</v>
+        <v>5.470829981370282</v>
       </c>
       <c r="D17">
-        <v>4.804552273817266</v>
+        <v>8.131096117915977</v>
       </c>
       <c r="E17">
-        <v>5.898332479103498</v>
+        <v>11.81912733171457</v>
       </c>
       <c r="F17">
-        <v>38.18140177737983</v>
+        <v>36.00378655360414</v>
       </c>
       <c r="G17">
-        <v>1.992377667647733</v>
+        <v>3.629081372065449</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4.386855303815452</v>
+        <v>9.143394007956342</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>37.47107127358482</v>
+        <v>27.18636605123488</v>
       </c>
       <c r="N17">
-        <v>21.66890147473647</v>
+        <v>18.23998941100385</v>
       </c>
       <c r="O17">
-        <v>30.0767427875209</v>
+        <v>27.98576423220493</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.85597461045883</v>
+        <v>5.428090272140002</v>
       </c>
       <c r="D18">
-        <v>4.806784084888158</v>
+        <v>8.13373313407673</v>
       </c>
       <c r="E18">
-        <v>5.938707640969344</v>
+        <v>11.83245370037953</v>
       </c>
       <c r="F18">
-        <v>37.72388085958825</v>
+        <v>35.93193508568985</v>
       </c>
       <c r="G18">
-        <v>1.995036489101473</v>
+        <v>3.62994523431616</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4.420324385869975</v>
+        <v>9.15349904969853</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>37.00160327723462</v>
+        <v>27.00976304684315</v>
       </c>
       <c r="N18">
-        <v>21.47570462572635</v>
+        <v>18.17020357475227</v>
       </c>
       <c r="O18">
-        <v>29.6924118071748</v>
+        <v>27.92478698553456</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.814141708049309</v>
+        <v>5.413568509655802</v>
       </c>
       <c r="D19">
-        <v>4.807561750533311</v>
+        <v>8.134634299424102</v>
       </c>
       <c r="E19">
-        <v>5.952405855732853</v>
+        <v>11.83699436085252</v>
       </c>
       <c r="F19">
-        <v>37.5687806667387</v>
+        <v>35.90778119200861</v>
       </c>
       <c r="G19">
-        <v>1.99593776777968</v>
+        <v>3.630239707784114</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4.431669117171773</v>
+        <v>9.156940842831343</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>36.84144028468715</v>
+        <v>26.94971551839397</v>
       </c>
       <c r="N19">
-        <v>21.40996726492597</v>
+        <v>18.1465434532122</v>
       </c>
       <c r="O19">
-        <v>29.57000691787534</v>
+        <v>27.90426423104058</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.001457771777762</v>
+        <v>5.478715632323479</v>
       </c>
       <c r="D20">
-        <v>4.804149781894377</v>
+        <v>8.130612014060203</v>
       </c>
       <c r="E20">
-        <v>5.890872935765509</v>
+        <v>11.81667448670565</v>
       </c>
       <c r="F20">
-        <v>38.26598841394821</v>
+        <v>36.01716675168769</v>
       </c>
       <c r="G20">
-        <v>1.991886047126225</v>
+        <v>3.628922432430944</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4.380666680031061</v>
+        <v>9.141533474329631</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>37.5573863921293</v>
+        <v>27.21892999095836</v>
       </c>
       <c r="N20">
-        <v>21.70450297297083</v>
+        <v>18.2528895611365</v>
       </c>
       <c r="O20">
-        <v>30.15344401168122</v>
+        <v>27.99710782964508</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.614872433539549</v>
+        <v>5.693852148806648</v>
       </c>
       <c r="D21">
-        <v>4.794288154497563</v>
+        <v>8.117675084362947</v>
       </c>
       <c r="E21">
-        <v>5.68591400243245</v>
+        <v>11.75038505153687</v>
       </c>
       <c r="F21">
-        <v>40.62859118141885</v>
+        <v>36.39650498937644</v>
       </c>
       <c r="G21">
-        <v>1.978326853063358</v>
+        <v>3.624634144089717</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.210018644250185</v>
+        <v>9.091181612815451</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>39.87968572837465</v>
+        <v>28.10514331787087</v>
       </c>
       <c r="N21">
-        <v>22.67104246611641</v>
+        <v>18.60767341839836</v>
       </c>
       <c r="O21">
-        <v>32.24700752089795</v>
+        <v>28.31737269687011</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>10.00447449960924</v>
+        <v>5.831428445031476</v>
       </c>
       <c r="D22">
-        <v>4.789130564332663</v>
+        <v>8.109649022252045</v>
       </c>
       <c r="E22">
-        <v>5.553095324971083</v>
+        <v>11.70853204454007</v>
       </c>
       <c r="F22">
-        <v>42.26435764618321</v>
+        <v>36.65290286938474</v>
       </c>
       <c r="G22">
-        <v>1.969481482931397</v>
+        <v>3.621933475646634</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.098809736494186</v>
+        <v>9.059323160145407</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>41.33661360902997</v>
+        <v>28.66988462800457</v>
       </c>
       <c r="N22">
-        <v>23.28502354965125</v>
+        <v>18.83730829958182</v>
       </c>
       <c r="O22">
-        <v>33.59028133277429</v>
+        <v>28.53259843002255</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.797530943239762</v>
+        <v>5.758292576644361</v>
       </c>
       <c r="D23">
-        <v>4.79175884587164</v>
+        <v>8.113893519922838</v>
       </c>
       <c r="E23">
-        <v>5.623892615975072</v>
+        <v>11.73073561469297</v>
       </c>
       <c r="F23">
-        <v>41.39312897304669</v>
+        <v>36.51530441017831</v>
       </c>
       <c r="G23">
-        <v>1.974202568001674</v>
+        <v>3.623365578420934</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.158149213249245</v>
+        <v>9.076230920216181</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>40.56451076142666</v>
+        <v>28.36984271995736</v>
       </c>
       <c r="N23">
-        <v>22.95898027595539</v>
+        <v>18.71497483055848</v>
       </c>
       <c r="O23">
-        <v>32.87550828986184</v>
+        <v>28.41720617782246</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.991232639835605</v>
+        <v>5.475151535118598</v>
       </c>
       <c r="D24">
-        <v>4.804331338996122</v>
+        <v>8.130830723060848</v>
       </c>
       <c r="E24">
-        <v>5.894244849586987</v>
+        <v>11.81778288167845</v>
       </c>
       <c r="F24">
-        <v>38.22775086027966</v>
+        <v>36.01111454431462</v>
       </c>
       <c r="G24">
-        <v>1.992108288011569</v>
+        <v>3.628994251900087</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4.38346429772532</v>
+        <v>9.142374238023111</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>37.51838580865209</v>
+        <v>27.20421274625529</v>
       </c>
       <c r="N24">
-        <v>21.68841374357531</v>
+        <v>18.24705811285196</v>
       </c>
       <c r="O24">
-        <v>30.1187775521342</v>
+        <v>27.99197726963495</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.06936783390802</v>
+        <v>5.158323954537184</v>
       </c>
       <c r="D25">
-        <v>4.822854170581689</v>
+        <v>8.150950920934912</v>
       </c>
       <c r="E25">
-        <v>6.191952232701795</v>
+        <v>11.91803635589946</v>
       </c>
       <c r="F25">
-        <v>34.86953896324242</v>
+        <v>35.50575169907831</v>
       </c>
       <c r="G25">
-        <v>2.011640896294397</v>
+        <v>3.6355071705681</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4.629195853571839</v>
+        <v>9.218259014512984</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>33.96417004381934</v>
+        <v>25.89026926954883</v>
       </c>
       <c r="N25">
-        <v>20.24556592511978</v>
+        <v>17.73506920639311</v>
       </c>
       <c r="O25">
-        <v>27.43573976890617</v>
+        <v>27.56053151762919</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_65/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_65/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.917212931948922</v>
+        <v>7.342116774811775</v>
       </c>
       <c r="D2">
-        <v>8.167369351208349</v>
+        <v>4.840264133561716</v>
       </c>
       <c r="E2">
-        <v>11.99738351296328</v>
+        <v>6.417627998789632</v>
       </c>
       <c r="F2">
-        <v>35.16875242850849</v>
+        <v>32.36023802799519</v>
       </c>
       <c r="G2">
-        <v>3.64068724090915</v>
+        <v>2.026353938893334</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.278083156453967</v>
+        <v>4.813756656851012</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>24.88075059864842</v>
+        <v>31.10865178199628</v>
       </c>
       <c r="N2">
-        <v>17.35447637075239</v>
+        <v>19.12614529196036</v>
       </c>
       <c r="O2">
-        <v>27.26808620940093</v>
+        <v>25.44356012748437</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.750119464859718</v>
+        <v>6.817404773316145</v>
       </c>
       <c r="D3">
-        <v>8.179503095209968</v>
+        <v>4.854224658101176</v>
       </c>
       <c r="E3">
-        <v>12.05463908399377</v>
+        <v>6.575154453410114</v>
       </c>
       <c r="F3">
-        <v>34.9631354881279</v>
+        <v>30.63985154961581</v>
       </c>
       <c r="G3">
-        <v>3.64444024518847</v>
+        <v>2.036592812695482</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.321114434380858</v>
+        <v>4.941669121321271</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>24.17427427824269</v>
+        <v>29.02117698900819</v>
       </c>
       <c r="N3">
-        <v>17.09569665456516</v>
+        <v>18.33544392621036</v>
       </c>
       <c r="O3">
-        <v>27.08644799104477</v>
+        <v>24.07199061713235</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.646162616357148</v>
+        <v>6.479040995031463</v>
       </c>
       <c r="D4">
-        <v>8.187451942888639</v>
+        <v>4.86381134120108</v>
       </c>
       <c r="E4">
-        <v>12.09152148324506</v>
+        <v>6.674299157589052</v>
       </c>
       <c r="F4">
-        <v>34.84836795875881</v>
+        <v>29.57583726252324</v>
       </c>
       <c r="G4">
-        <v>3.646864997017706</v>
+        <v>2.043029325567093</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.34877062059031</v>
+        <v>5.021773159744091</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>23.73097930278247</v>
+        <v>27.67134306064407</v>
       </c>
       <c r="N4">
-        <v>16.93687677234264</v>
+        <v>17.83563488866762</v>
       </c>
       <c r="O4">
-        <v>26.98332921512337</v>
+        <v>23.22084076481107</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.603532865019321</v>
+        <v>6.337018148838405</v>
       </c>
       <c r="D5">
-        <v>8.190816853145179</v>
+        <v>4.867966533555852</v>
       </c>
       <c r="E5">
-        <v>12.10698707767452</v>
+        <v>6.715332650375213</v>
       </c>
       <c r="F5">
-        <v>34.80452020706537</v>
+        <v>29.14074053152371</v>
       </c>
       <c r="G5">
-        <v>3.647883491431646</v>
+        <v>2.045692325697536</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.360352286857824</v>
+        <v>5.054832462358058</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>23.54818489355255</v>
+        <v>27.14123198339239</v>
       </c>
       <c r="N5">
-        <v>16.87225031281281</v>
+        <v>17.6286229403455</v>
       </c>
       <c r="O5">
-        <v>26.94345513850023</v>
+        <v>22.8720604268228</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.596440452698929</v>
+        <v>6.313183642393515</v>
       </c>
       <c r="D6">
-        <v>8.19138319392686</v>
+        <v>4.86867133196395</v>
       </c>
       <c r="E6">
-        <v>12.10958148480595</v>
+        <v>6.722184970897032</v>
       </c>
       <c r="F6">
-        <v>34.79741661514781</v>
+        <v>29.06841693373037</v>
       </c>
       <c r="G6">
-        <v>3.64805445040567</v>
+        <v>2.046137001638316</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.362294260921404</v>
+        <v>5.060347707469157</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>23.51770976550928</v>
+        <v>27.05223023924577</v>
       </c>
       <c r="N6">
-        <v>16.86152704277186</v>
+        <v>17.59405571781103</v>
       </c>
       <c r="O6">
-        <v>26.93696468571127</v>
+        <v>22.81404055629129</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.64558867147369</v>
+        <v>6.477142460175703</v>
       </c>
       <c r="D7">
-        <v>8.187496813934739</v>
+        <v>4.863866381447406</v>
       </c>
       <c r="E7">
-        <v>12.09172829164696</v>
+        <v>6.674849965768193</v>
       </c>
       <c r="F7">
-        <v>34.84776474566191</v>
+        <v>29.56997483249735</v>
       </c>
       <c r="G7">
-        <v>3.646878609597311</v>
+        <v>2.043065074438479</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.348925552198029</v>
+        <v>5.022217294844017</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>23.72852243531446</v>
+        <v>27.66425939501605</v>
       </c>
       <c r="N7">
-        <v>16.93600471623157</v>
+        <v>17.83285618401639</v>
       </c>
       <c r="O7">
-        <v>26.9827827227267</v>
+        <v>23.21614430218185</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.859925192702277</v>
+        <v>7.164514966578844</v>
       </c>
       <c r="D8">
-        <v>8.1714497418567</v>
+        <v>4.844862815932046</v>
       </c>
       <c r="E8">
-        <v>12.01676758238604</v>
+        <v>6.471453968549845</v>
       </c>
       <c r="F8">
-        <v>35.09549446808343</v>
+        <v>31.76887092197738</v>
       </c>
       <c r="G8">
-        <v>3.641956358657358</v>
+        <v>2.029854715451114</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.292664688353154</v>
+        <v>4.857550174601458</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>24.63927400375151</v>
+        <v>30.40460662230478</v>
       </c>
       <c r="N8">
-        <v>17.26527943722603</v>
+        <v>18.85662991098991</v>
       </c>
       <c r="O8">
-        <v>27.20373365408723</v>
+        <v>24.97268430790478</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.266409101837487</v>
+        <v>8.387203686425726</v>
       </c>
       <c r="D9">
-        <v>8.143925056831105</v>
+        <v>4.815999803287623</v>
       </c>
       <c r="E9">
-        <v>11.8834107526297</v>
+        <v>6.090740697187726</v>
       </c>
       <c r="F9">
-        <v>35.67065886905645</v>
+        <v>36.00660729118921</v>
       </c>
       <c r="G9">
-        <v>3.633253863358509</v>
+        <v>2.005018676173069</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.192086564531529</v>
+        <v>4.545938604261464</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>26.33988729653997</v>
+        <v>35.19798803226877</v>
       </c>
       <c r="N9">
-        <v>17.90827736312335</v>
+        <v>20.74085375466141</v>
       </c>
       <c r="O9">
-        <v>27.70206230748402</v>
+        <v>28.33578631951726</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.552983637587624</v>
+        <v>9.213998028663246</v>
       </c>
       <c r="D10">
-        <v>8.126088492097622</v>
+        <v>4.800500977831715</v>
       </c>
       <c r="E10">
-        <v>11.79365862909005</v>
+        <v>5.820448830682773</v>
       </c>
       <c r="F10">
-        <v>36.14503534893896</v>
+        <v>39.06535102869465</v>
       </c>
       <c r="G10">
-        <v>3.627431981747816</v>
+        <v>1.987238549793989</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.12406639034776</v>
+        <v>4.322164163552094</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>27.52532825249589</v>
+        <v>38.3659181536582</v>
       </c>
       <c r="N10">
-        <v>18.3747519733078</v>
+        <v>22.03916278093487</v>
       </c>
       <c r="O10">
-        <v>28.10534082559191</v>
+        <v>30.87577523911069</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.680083447584085</v>
+        <v>9.575795241004471</v>
       </c>
       <c r="D11">
-        <v>8.118488348619831</v>
+        <v>4.794854219269832</v>
       </c>
       <c r="E11">
-        <v>11.75459464164173</v>
+        <v>5.699124751540233</v>
       </c>
       <c r="F11">
-        <v>36.37142326415622</v>
+        <v>40.4655830529605</v>
       </c>
       <c r="G11">
-        <v>3.624906063932233</v>
+        <v>1.979203994886551</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.094383074525163</v>
+        <v>4.221053179829337</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>28.04854415224001</v>
+        <v>39.73277455633069</v>
       </c>
       <c r="N11">
-        <v>18.58480704459731</v>
+        <v>22.60943432165686</v>
       </c>
       <c r="O11">
-        <v>28.2962691859385</v>
+        <v>32.11284487242543</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.727697019072191</v>
+        <v>9.710851032003037</v>
       </c>
       <c r="D12">
-        <v>8.115683955580511</v>
+        <v>4.792934996722411</v>
       </c>
       <c r="E12">
-        <v>11.74005442393552</v>
+        <v>5.653379905180349</v>
       </c>
       <c r="F12">
-        <v>36.45861144743968</v>
+        <v>41.02979234634331</v>
       </c>
       <c r="G12">
-        <v>3.623967057605458</v>
+        <v>1.976164720827399</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.083322763094886</v>
+        <v>4.182823214153878</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>28.24420637808921</v>
+        <v>40.23991698851201</v>
       </c>
       <c r="N12">
-        <v>18.66397177131545</v>
+        <v>22.82235148549062</v>
       </c>
       <c r="O12">
-        <v>28.36958893509163</v>
+        <v>32.57697276112385</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.717466240855408</v>
+        <v>9.68184915335941</v>
       </c>
       <c r="D13">
-        <v>8.116284661937106</v>
+        <v>4.793338281164821</v>
       </c>
       <c r="E13">
-        <v>11.7431747120239</v>
+        <v>5.663223700825634</v>
       </c>
       <c r="F13">
-        <v>36.43977001875478</v>
+        <v>40.90843725154533</v>
       </c>
       <c r="G13">
-        <v>3.62416851266289</v>
+        <v>1.976819216633258</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.085696803982293</v>
+        <v>4.191054801435124</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>28.20217918147413</v>
+        <v>40.1311560918389</v>
       </c>
       <c r="N13">
-        <v>18.64694014921102</v>
+        <v>22.77663229638512</v>
       </c>
       <c r="O13">
-        <v>28.35375378897603</v>
+        <v>32.47720073926929</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.684011243420038</v>
+        <v>9.586944750509081</v>
       </c>
       <c r="D14">
-        <v>8.118256155661193</v>
+        <v>4.794691822226095</v>
       </c>
       <c r="E14">
-        <v>11.75339335677766</v>
+        <v>5.695357553170032</v>
       </c>
       <c r="F14">
-        <v>36.37856740138874</v>
+        <v>40.51207242970729</v>
       </c>
       <c r="G14">
-        <v>3.624828461136186</v>
+        <v>1.978953914882277</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.093469531882892</v>
+        <v>4.217907048766686</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>28.06469173235108</v>
+        <v>39.77470568891596</v>
       </c>
       <c r="N14">
-        <v>18.59132795120682</v>
+        <v>22.62701245138007</v>
       </c>
       <c r="O14">
-        <v>28.30228114332608</v>
+        <v>32.15111344377374</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.663450543437676</v>
+        <v>9.528562713405247</v>
       </c>
       <c r="D15">
-        <v>8.119473331603901</v>
+        <v>4.795550004646437</v>
       </c>
       <c r="E15">
-        <v>11.75968541198154</v>
+        <v>5.715065084941426</v>
       </c>
       <c r="F15">
-        <v>36.34126723495876</v>
+        <v>40.26881971224154</v>
       </c>
       <c r="G15">
-        <v>3.625234974923587</v>
+        <v>1.980261757727149</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.098253979413732</v>
+        <v>4.234361190178455</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>27.98015076400866</v>
+        <v>39.55501471444857</v>
       </c>
       <c r="N15">
-        <v>18.55721254933057</v>
+        <v>22.53496828027499</v>
       </c>
       <c r="O15">
-        <v>28.27088371984506</v>
+        <v>31.95082358403371</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.54460754083514</v>
+        <v>9.190074760089121</v>
       </c>
       <c r="D16">
-        <v>8.126595495419462</v>
+        <v>4.800899652109816</v>
       </c>
       <c r="E16">
-        <v>11.79624695199606</v>
+        <v>5.828407437873661</v>
       </c>
       <c r="F16">
-        <v>36.13044818536849</v>
+        <v>38.97494709058979</v>
       </c>
       <c r="G16">
-        <v>3.627599511780836</v>
+        <v>1.987764337136559</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.12603152301249</v>
+        <v>4.328782476394153</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>27.49079784168778</v>
+        <v>38.27511514229631</v>
       </c>
       <c r="N16">
-        <v>18.3609751440959</v>
+        <v>22.00147520544925</v>
       </c>
       <c r="O16">
-        <v>28.09300892633405</v>
+        <v>30.79430518492479</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.470829981370282</v>
+        <v>8.978831072357748</v>
       </c>
       <c r="D17">
-        <v>8.131096117915977</v>
+        <v>4.804552273817263</v>
       </c>
       <c r="E17">
-        <v>11.81912733171457</v>
+        <v>5.898332479103632</v>
       </c>
       <c r="F17">
-        <v>36.00378655360414</v>
+        <v>38.18140177737983</v>
       </c>
       <c r="G17">
-        <v>3.629081372065449</v>
+        <v>1.992377667647735</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.143394007956342</v>
+        <v>4.386855303815486</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>27.18636605123488</v>
+        <v>37.4710712735848</v>
       </c>
       <c r="N17">
-        <v>18.23998941100385</v>
+        <v>21.66890147473648</v>
       </c>
       <c r="O17">
-        <v>27.98576423220493</v>
+        <v>30.07674278752087</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.428090272140002</v>
+        <v>8.855974610458858</v>
       </c>
       <c r="D18">
-        <v>8.13373313407673</v>
+        <v>4.806784084888365</v>
       </c>
       <c r="E18">
-        <v>11.83245370037953</v>
+        <v>5.938707640969545</v>
       </c>
       <c r="F18">
-        <v>35.93193508568985</v>
+        <v>37.72388085958831</v>
       </c>
       <c r="G18">
-        <v>3.62994523431616</v>
+        <v>1.995036489101337</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.15349904969853</v>
+        <v>4.420324385870008</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>27.00976304684315</v>
+        <v>37.00160327723469</v>
       </c>
       <c r="N18">
-        <v>18.17020357475227</v>
+        <v>21.47570462572635</v>
       </c>
       <c r="O18">
-        <v>27.92478698553456</v>
+        <v>29.69241180717486</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.413568509655802</v>
+        <v>8.814141708049259</v>
       </c>
       <c r="D19">
-        <v>8.134634299424102</v>
+        <v>4.807561750533311</v>
       </c>
       <c r="E19">
-        <v>11.83699436085252</v>
+        <v>5.95240585573292</v>
       </c>
       <c r="F19">
-        <v>35.90778119200861</v>
+        <v>37.56878066673865</v>
       </c>
       <c r="G19">
-        <v>3.630239707784114</v>
+        <v>1.995937767779811</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.156940842831343</v>
+        <v>4.431669117171807</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>26.94971551839397</v>
+        <v>36.84144028468708</v>
       </c>
       <c r="N19">
-        <v>18.1465434532122</v>
+        <v>21.40996726492599</v>
       </c>
       <c r="O19">
-        <v>27.90426423104058</v>
+        <v>29.5700069178753</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.478715632323479</v>
+        <v>9.001457771777845</v>
       </c>
       <c r="D20">
-        <v>8.130612014060203</v>
+        <v>4.804149781894314</v>
       </c>
       <c r="E20">
-        <v>11.81667448670565</v>
+        <v>5.890872935765512</v>
       </c>
       <c r="F20">
-        <v>36.01716675168769</v>
+        <v>38.2659884139482</v>
       </c>
       <c r="G20">
-        <v>3.628922432430944</v>
+        <v>1.991886047126094</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.141533474329631</v>
+        <v>4.380666680031061</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>27.21892999095836</v>
+        <v>37.55738639212929</v>
       </c>
       <c r="N20">
-        <v>18.2528895611365</v>
+        <v>21.70450297297081</v>
       </c>
       <c r="O20">
-        <v>27.99710782964508</v>
+        <v>30.15344401168122</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.693852148806648</v>
+        <v>9.614872433539521</v>
       </c>
       <c r="D21">
-        <v>8.117675084362947</v>
+        <v>4.794288154497626</v>
       </c>
       <c r="E21">
-        <v>11.75038505153687</v>
+        <v>5.685914002432516</v>
       </c>
       <c r="F21">
-        <v>36.39650498937644</v>
+        <v>40.62859118141884</v>
       </c>
       <c r="G21">
-        <v>3.624634144089717</v>
+        <v>1.97832685306335</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.091181612815451</v>
+        <v>4.210018644250185</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>28.10514331787087</v>
+        <v>39.87968572837465</v>
       </c>
       <c r="N21">
-        <v>18.60767341839836</v>
+        <v>22.67104246611642</v>
       </c>
       <c r="O21">
-        <v>28.31737269687011</v>
+        <v>32.24700752089795</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.831428445031476</v>
+        <v>10.0044744996092</v>
       </c>
       <c r="D22">
-        <v>8.109649022252045</v>
+        <v>4.789130564332797</v>
       </c>
       <c r="E22">
-        <v>11.70853204454007</v>
+        <v>5.553095324971149</v>
       </c>
       <c r="F22">
-        <v>36.65290286938474</v>
+        <v>42.26435764618329</v>
       </c>
       <c r="G22">
-        <v>3.621933475646634</v>
+        <v>1.969481482931129</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.059323160145407</v>
+        <v>4.098809736494218</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>28.66988462800457</v>
+        <v>41.33661360903</v>
       </c>
       <c r="N22">
-        <v>18.83730829958182</v>
+        <v>23.28502354965123</v>
       </c>
       <c r="O22">
-        <v>28.53259843002255</v>
+        <v>33.5902813327744</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.758292576644361</v>
+        <v>9.797530943239817</v>
       </c>
       <c r="D23">
-        <v>8.113893519922838</v>
+        <v>4.791758845871503</v>
       </c>
       <c r="E23">
-        <v>11.73073561469297</v>
+        <v>5.623892615975004</v>
       </c>
       <c r="F23">
-        <v>36.51530441017831</v>
+        <v>41.3931289730468</v>
       </c>
       <c r="G23">
-        <v>3.623365578420934</v>
+        <v>1.974202568001804</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.076230920216181</v>
+        <v>4.158149213249245</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>28.36984271995736</v>
+        <v>40.56451076142674</v>
       </c>
       <c r="N23">
-        <v>18.71497483055848</v>
+        <v>22.95898027595539</v>
       </c>
       <c r="O23">
-        <v>28.41720617782246</v>
+        <v>32.87550828986193</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.475151535118598</v>
+        <v>8.991232639835619</v>
       </c>
       <c r="D24">
-        <v>8.130830723060848</v>
+        <v>4.804331338996059</v>
       </c>
       <c r="E24">
-        <v>11.81778288167845</v>
+        <v>5.894244849586854</v>
       </c>
       <c r="F24">
-        <v>36.01111454431462</v>
+        <v>38.22775086027963</v>
       </c>
       <c r="G24">
-        <v>3.628994251900087</v>
+        <v>1.992108288011571</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.142374238023111</v>
+        <v>4.383464297725287</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>27.20421274625529</v>
+        <v>37.51838580865209</v>
       </c>
       <c r="N24">
-        <v>18.24705811285196</v>
+        <v>21.68841374357531</v>
       </c>
       <c r="O24">
-        <v>27.99197726963495</v>
+        <v>30.11877755213421</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.158323954537184</v>
+        <v>8.069367833908002</v>
       </c>
       <c r="D25">
-        <v>8.150950920934912</v>
+        <v>4.822854170581818</v>
       </c>
       <c r="E25">
-        <v>11.91803635589946</v>
+        <v>6.191952232701929</v>
       </c>
       <c r="F25">
-        <v>35.50575169907831</v>
+        <v>34.86953896324242</v>
       </c>
       <c r="G25">
-        <v>3.6355071705681</v>
+        <v>2.011640896294666</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.218259014512984</v>
+        <v>4.629195853571908</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>25.89026926954883</v>
+        <v>33.96417004381938</v>
       </c>
       <c r="N25">
-        <v>17.73506920639311</v>
+        <v>20.24556592511977</v>
       </c>
       <c r="O25">
-        <v>27.56053151762919</v>
+        <v>27.43573976890616</v>
       </c>
     </row>
   </sheetData>
